--- a/Godlibrary/Excel/level_map.xlsx
+++ b/Godlibrary/Excel/level_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7380" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="231">
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
@@ -1316,6 +1316,140 @@
   </si>
   <si>
     <t>ウォーリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤G</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤I</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤H</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤J</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤K</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤L</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤M</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤N</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤Q</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤R</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤S</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤T</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤U</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤V</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーセナリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイアンアクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャベリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルスクラッパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソルジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロングランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はがねのツメ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8217,7 +8351,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>C</a:t>
+            <a:t>D</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
@@ -8492,7 +8626,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>F</a:t>
+            <a:t>A</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
@@ -8561,7 +8695,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>E</a:t>
+            <a:t>B</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
@@ -8841,7 +8975,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>B</a:t>
+            <a:t>C</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
@@ -9112,6 +9246,1126 @@
             <a:t>B</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3375660" y="4495800"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="楕円 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901440" y="4503420"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3474720"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4389120" y="3482340"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="楕円 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="5494020"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>U</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="楕円 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="5501640"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>V</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="楕円 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="3474720"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="3733800"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="4975860"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="楕円 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="5234940"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="楕円 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577340" y="4000500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="楕円 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3977640"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="楕円 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="723900"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="楕円 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="982980"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="楕円 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="731520"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="楕円 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="1242060"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12743,7 +13997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15477,7 +16731,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT28"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15489,7 +16743,7 @@
     <col min="33" max="33" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.21875" customWidth="1"/>
@@ -16141,16 +17395,16 @@
         <v>57</v>
       </c>
       <c r="AH13" s="52" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="AI13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="s">
         <v>116</v>
       </c>
       <c r="AK13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AM13" s="36" t="s">
         <v>177</v>
@@ -16192,13 +17446,13 @@
         <v>140</v>
       </c>
       <c r="AI14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16235,16 +17489,16 @@
         <v>59</v>
       </c>
       <c r="AH15" s="52" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="s">
         <v>116</v>
       </c>
       <c r="AK15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16284,7 +17538,7 @@
         <v>140</v>
       </c>
       <c r="AI16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="s">
         <v>120</v>
@@ -16327,16 +17581,16 @@
         <v>61</v>
       </c>
       <c r="AH17" s="52" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="AI17">
         <v>5</v>
       </c>
       <c r="AJ17" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16373,16 +17627,16 @@
         <v>112</v>
       </c>
       <c r="AH18" s="52" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="AI18">
         <v>5</v>
       </c>
       <c r="AJ18" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16415,6 +17669,21 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="42"/>
       <c r="AD19" s="7"/>
+      <c r="AG19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH19" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
@@ -16446,6 +17715,21 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="24"/>
+      <c r="AG20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH20" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI20">
+        <v>5</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
@@ -16476,6 +17760,21 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="42"/>
+      <c r="AG21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI21">
+        <v>7</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
@@ -16506,6 +17805,21 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="42"/>
+      <c r="AG22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH22" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI22">
+        <v>7</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
@@ -16536,6 +17850,21 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="42"/>
+      <c r="AG23" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH23" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI23">
+        <v>7</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="24" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
@@ -16566,6 +17895,21 @@
       <c r="AA24" s="22"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="42"/>
+      <c r="AG24" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH24" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI24">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
@@ -16596,6 +17940,21 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="25"/>
       <c r="AC25" s="42"/>
+      <c r="AG25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI25">
+        <v>5</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
@@ -16626,6 +17985,21 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="25"/>
       <c r="AC26" s="42"/>
+      <c r="AG26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH26" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI26">
+        <v>5</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="2:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="47"/>
@@ -16655,10 +18029,108 @@
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
       <c r="AB27" s="51"/>
+      <c r="AG27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH27" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI27">
+        <v>5</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>161</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH28" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI28">
+        <v>5</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG29" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH29" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI29">
+        <v>7</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG30" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH30" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI30">
+        <v>7</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG31" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH31" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI31">
+        <v>7</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG32" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH32" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI32">
+        <v>7</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -16673,7 +18145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Godlibrary/Excel/level_map.xlsx
+++ b/Godlibrary/Excel/level_map.xlsx
@@ -1508,7 +1508,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1959,6 +1965,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14505,7 +14514,7 @@
       <c r="U4">
         <v>3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="67" t="s">
         <v>72</v>
       </c>
       <c r="W4" t="s">
@@ -14604,7 +14613,7 @@
       <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="67" t="s">
         <v>73</v>
       </c>
       <c r="W6" t="s">
@@ -15216,7 +15225,7 @@
       <c r="AG4">
         <v>12</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="67" t="s">
         <v>121</v>
       </c>
       <c r="AI4" t="s">
@@ -15268,7 +15277,7 @@
       <c r="AG5">
         <v>4</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="67" t="s">
         <v>122</v>
       </c>
       <c r="AI5" t="s">
@@ -15341,7 +15350,7 @@
       <c r="AG6">
         <v>7</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="67" t="s">
         <v>120</v>
       </c>
       <c r="AI6" t="s">
@@ -15463,7 +15472,7 @@
       <c r="AG8">
         <v>5</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="67" t="s">
         <v>120</v>
       </c>
       <c r="AI8" t="s">
@@ -15941,7 +15950,7 @@
       <c r="AG22">
         <v>3</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AH22" s="67" t="s">
         <v>123</v>
       </c>
       <c r="AI22" t="s">
@@ -16088,7 +16097,7 @@
       <c r="AB4">
         <v>15</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="67" t="s">
         <v>141</v>
       </c>
       <c r="AD4" t="s">
@@ -16135,7 +16144,7 @@
       <c r="AB5">
         <v>10</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="67" t="s">
         <v>142</v>
       </c>
       <c r="AD5" t="s">
@@ -16362,7 +16371,7 @@
       <c r="AB9">
         <v>7</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="67" t="s">
         <v>121</v>
       </c>
       <c r="AD9" t="s">
@@ -16875,7 +16884,7 @@
       <c r="AI4">
         <v>5</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="67" t="s">
         <v>123</v>
       </c>
       <c r="AK4" t="s">
@@ -17238,7 +17247,7 @@
       <c r="AI10">
         <v>7</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="67" t="s">
         <v>186</v>
       </c>
       <c r="AK10" t="s">
@@ -17949,7 +17958,7 @@
       <c r="AI25">
         <v>5</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AJ25" s="67" t="s">
         <v>73</v>
       </c>
       <c r="AK25" t="s">
@@ -18058,7 +18067,7 @@
       <c r="AI28">
         <v>5</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AJ28" s="52" t="s">
         <v>75</v>
       </c>
       <c r="AK28" t="s">
@@ -18109,7 +18118,7 @@
       <c r="AI31">
         <v>7</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AJ31" s="67" t="s">
         <v>230</v>
       </c>
       <c r="AK31" t="s">
@@ -18269,7 +18278,7 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="67" t="s">
         <v>193</v>
       </c>
       <c r="AB4" t="s">
@@ -18578,7 +18587,7 @@
       <c r="Z10">
         <v>1</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="67" t="s">
         <v>189</v>
       </c>
       <c r="AB10" t="s">
@@ -18929,7 +18938,7 @@
       <c r="Z20">
         <v>5</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="67" t="s">
         <v>194</v>
       </c>
       <c r="AB20" t="s">
@@ -19128,7 +19137,7 @@
       <c r="Z26">
         <v>1</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AA26" s="67" t="s">
         <v>196</v>
       </c>
       <c r="AB26" t="s">
@@ -19224,7 +19233,7 @@
       <c r="Z29">
         <v>1</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AA29" s="67" t="s">
         <v>197</v>
       </c>
       <c r="AB29" t="s">
@@ -19341,7 +19350,7 @@
       <c r="Z35">
         <v>10</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AA35" s="67" t="s">
         <v>203</v>
       </c>
       <c r="AB35" t="s">
@@ -19358,7 +19367,7 @@
       <c r="Z36">
         <v>1</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AA36" s="67" t="s">
         <v>202</v>
       </c>
       <c r="AB36" t="s">
